--- a/Test_Case_Document.xlsx
+++ b/Test_Case_Document.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
   <si>
     <t>Test Id</t>
   </si>
@@ -64,6 +64,597 @@
   </si>
   <si>
     <t>Nothing</t>
+  </si>
+  <si>
+    <t>Check that landing page loads at root route</t>
+  </si>
+  <si>
+    <t>Open app and navigate to "/"</t>
+  </si>
+  <si>
+    <t>Landing component renders</t>
+  </si>
+  <si>
+    <t>Check that login page loads at "/login"</t>
+  </si>
+  <si>
+    <t>Open app and navigate to "/login"</t>
+  </si>
+  <si>
+    <t>MacroTokLogin component renders</t>
+  </si>
+  <si>
+    <t>Check that login page loads at "/settings"</t>
+  </si>
+  <si>
+    <t>Open app and navigate to "/settings"</t>
+  </si>
+  <si>
+    <t>SettingsPage component renders</t>
+  </si>
+  <si>
+    <t>Check sidebar navigation: selecting “home” goes to /feed</t>
+  </si>
+  <si>
+    <t>Load feed. Click sidebar "home"</t>
+  </si>
+  <si>
+    <t>Sidebar button press</t>
+  </si>
+  <si>
+    <t>Route changes to /feed and Feed renders</t>
+  </si>
+  <si>
+    <t>Check sidebar navigation: selecting “plan” goes to /calendar</t>
+  </si>
+  <si>
+    <t>Load feed. Click sidebar "plan"</t>
+  </si>
+  <si>
+    <t>Route changes to /calendar and PlannerPage renders</t>
+  </si>
+  <si>
+    <t>Check sidebar navigation: selecting “settings” goes to /settings</t>
+  </si>
+  <si>
+    <t>Load AppLayout. Click sidebar “settings”</t>
+  </si>
+  <si>
+    <t>Route changes to /settings</t>
+  </si>
+  <si>
+    <t>Check that active sidebar state changes when visiting /calendar</t>
+  </si>
+  <si>
+    <t>Navigate to /calendar</t>
+  </si>
+  <si>
+    <t>Active sidebar item = “plan”</t>
+  </si>
+  <si>
+    <t>Active sidebar item is “plan”</t>
+  </si>
+  <si>
+    <t>Check dark/light theme toggle updates HTML root class</t>
+  </si>
+  <si>
+    <t>Render App. Call toggleTheme()</t>
+  </si>
+  <si>
+    <t>HTML root gains or removes “dark” class</t>
+  </si>
+  <si>
+    <t>HTML root doesnt update theme class</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Dark/Light themes are not consistent though the app. 
+Dark mode for the landing is not the same as dark 
+mode for the settings</t>
+  </si>
+  <si>
+    <t>Check RecipePage loads correct recipe based on route param</t>
+  </si>
+  <si>
+    <t>Navigate to /recipe/{id} with recipe existing in store</t>
+  </si>
+  <si>
+    <t>ID param</t>
+  </si>
+  <si>
+    <t>RecipeView receives matching recipe object</t>
+  </si>
+  <si>
+    <t>Check RecipePage handles missing recipe id gracefully</t>
+  </si>
+  <si>
+    <t>Navigate to /recipe/{id} where id does not exist</t>
+  </si>
+  <si>
+    <t>Invalid ID param</t>
+  </si>
+  <si>
+    <t>RecipeView receives undefined recipe</t>
+  </si>
+  <si>
+    <t>May need UX handling depending on design</t>
+  </si>
+  <si>
+    <t>Verify recipes load from Firestore on feed mount</t>
+  </si>
+  <si>
+    <t>Open Feed. Allow useEffect to run</t>
+  </si>
+  <si>
+    <t>loadRecipesFromFirestore() loads recipes into store</t>
+  </si>
+  <si>
+    <t>Recipes appear in grid</t>
+  </si>
+  <si>
+    <t>Verify getRandomRecipe() runs on initial mount</t>
+  </si>
+  <si>
+    <t>Open Feed component. Observe first useEffect</t>
+  </si>
+  <si>
+    <t>getRandomRecipe() is executed</t>
+  </si>
+  <si>
+    <t>Ran successfully</t>
+  </si>
+  <si>
+    <t>Spoonacular API request may fail if quota is met</t>
+  </si>
+  <si>
+    <t>Verify search bar renders correctly</t>
+  </si>
+  <si>
+    <t>Open Feed. Inspect header</t>
+  </si>
+  <si>
+    <t>Input field displays placeholder “Search recipes…”</t>
+  </si>
+  <si>
+    <t>Correct input rendered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Search currently doesn't do anything</t>
+  </si>
+  <si>
+    <t>Verify clicking a RecipeCard navigates to correct recipe detail page</t>
+  </si>
+  <si>
+    <t>Load Feed. Click recipe card with id=k</t>
+  </si>
+  <si>
+    <t>Click Event</t>
+  </si>
+  <si>
+    <t>Navigation to /recipe/k</t>
+  </si>
+  <si>
+    <t>App routes to correct detail page</t>
+  </si>
+  <si>
+    <t>Verify HeartButton toggles like state without navigating</t>
+  </si>
+  <si>
+    <t>Render RecipeCard. Click heart button</t>
+  </si>
+  <si>
+    <t>Click heart</t>
+  </si>
+  <si>
+    <t>Heart icon toggles ❤️/🤍, card does not open</t>
+  </si>
+  <si>
+    <t>Heart toggled. No navigation</t>
+  </si>
+  <si>
+    <t>Verify difficulty tag matches getDifficulty() output</t>
+  </si>
+  <si>
+    <t>Open RecipeCard with known recipe stats</t>
+  </si>
+  <si>
+    <t>Recipe attributes</t>
+  </si>
+  <si>
+    <t>DifficultyTag displays Easy/Medium/Hard based on scoring rules</t>
+  </si>
+  <si>
+    <t>Displayed tag matches expected level</t>
+  </si>
+  <si>
+    <t>Scoring rules are too harsh. Rules need to be more 
+nuanced in the future</t>
+  </si>
+  <si>
+    <t>Verify StatBar shows correct truncated macros and progress width</t>
+  </si>
+  <si>
+    <t>Render RecipeCard with known nutrition values</t>
+  </si>
+  <si>
+    <t>Protein/Carbs/Fats numbers</t>
+  </si>
+  <si>
+    <t>StatBar text equals truncated values; progress bar width &lt;= 100%</t>
+  </si>
+  <si>
+    <t>Correct displayed metric</t>
+  </si>
+  <si>
+    <t>Verify ingredients list shows up to 5 chips + “+X more” chip when needed</t>
+  </si>
+  <si>
+    <t>Render RecipeCard with &gt;5 ingredients</t>
+  </si>
+  <si>
+    <t>Ingredients array</t>
+  </si>
+  <si>
+    <t>First 5 ingredients shown as chips; final chip shows excess count</t>
+  </si>
+  <si>
+    <t>Correct chip layout</t>
+  </si>
+  <si>
+    <t>Verify RecipeCard image displays correctly</t>
+  </si>
+  <si>
+    <t>Render RecipeCard</t>
+  </si>
+  <si>
+    <t>Recipe image URL</t>
+  </si>
+  <si>
+    <t>Image tag renders with correct src and alt text</t>
+  </si>
+  <si>
+    <t>Correct image loaded</t>
+  </si>
+  <si>
+    <t>Verify AuthButton shows “Log in” when no user is authenticated</t>
+  </si>
+  <si>
+    <t>Mock onAuthStateChanged returns null</t>
+  </si>
+  <si>
+    <t>AuthButton renders “Log in”</t>
+  </si>
+  <si>
+    <t>Correct label shown</t>
+  </si>
+  <si>
+    <t>Verify AuthButton shows “Log out” when a user is authenticated</t>
+  </si>
+  <si>
+    <t>Mock onAuthStateChanged → returns valid user</t>
+  </si>
+  <si>
+    <t>AuthButton renders “Log out”</t>
+  </si>
+  <si>
+    <t>Verify clicking “Log in” navigates to /login</t>
+  </si>
+  <si>
+    <t>Auth state: no user. Click Log in</t>
+  </si>
+  <si>
+    <t>Click event</t>
+  </si>
+  <si>
+    <t>Navigate to /login</t>
+  </si>
+  <si>
+    <t>Page navigates</t>
+  </si>
+  <si>
+    <t>Verify clicking “Log out” calls signOut(auth)</t>
+  </si>
+  <si>
+    <t>Auth state: user logged in → click Log out</t>
+  </si>
+  <si>
+    <t>signOut(auth) is triggered</t>
+  </si>
+  <si>
+    <t>Logout executed</t>
+  </si>
+  <si>
+    <t>Verify slideshow auto-rotates every 5 seconds when not paused</t>
+  </si>
+  <si>
+    <t>Wait 5 seconds on hero section</t>
+  </si>
+  <si>
+    <t>idx changes to next image</t>
+  </si>
+  <si>
+    <t>Image updates</t>
+  </si>
+  <si>
+    <t>There are extra buttons and views under the images.</t>
+  </si>
+  <si>
+    <t>Verify slideshow pauses when hovered or focused</t>
+  </si>
+  <si>
+    <t>Hover hero__image container</t>
+  </si>
+  <si>
+    <t>Hover event</t>
+  </si>
+  <si>
+    <t>Auto-rotation stops (idx does not change)</t>
+  </si>
+  <si>
+    <t>Slideshow paused</t>
+  </si>
+  <si>
+    <t>Verify “Open Calendar” CTA button links to /calendar</t>
+  </si>
+  <si>
+    <t>Click “Open Calendar”</t>
+  </si>
+  <si>
+    <t>Click on anchor</t>
+  </si>
+  <si>
+    <t>Navigates to /calendar</t>
+  </si>
+  <si>
+    <t>Correct navigation</t>
+  </si>
+  <si>
+    <t>Verify switching to Sign Up mode updates UI</t>
+  </si>
+  <si>
+    <t>Click “Sign up” button</t>
+  </si>
+  <si>
+    <t>Toggle click</t>
+  </si>
+  <si>
+    <t>Full Name + Confirm Password fields appear</t>
+  </si>
+  <si>
+    <t>UI updates</t>
+  </si>
+  <si>
+    <t>Verify switching back to Sign In mode updates UI</t>
+  </si>
+  <si>
+    <t>Click “Sign in” button</t>
+  </si>
+  <si>
+    <t>Full Name + Confirm Password fields disappear</t>
+  </si>
+  <si>
+    <t>Verify Google sign-in success navigates to /feed</t>
+  </si>
+  <si>
+    <t>Mock signInWithPopup. Resolve valid user</t>
+  </si>
+  <si>
+    <t>Click Google button</t>
+  </si>
+  <si>
+    <t>Navigate("/feed") is triggered</t>
+  </si>
+  <si>
+    <t>Navigation successful</t>
+  </si>
+  <si>
+    <t>Verify Google sign-in failure shows alert</t>
+  </si>
+  <si>
+    <t>Mock signInWithPopup. Reject with error</t>
+  </si>
+  <si>
+    <t>Error alert displays</t>
+  </si>
+  <si>
+    <t>Alert is displayed</t>
+  </si>
+  <si>
+    <t>Verify email sign-in fails if email or password missing</t>
+  </si>
+  <si>
+    <t>Leave email or password empty. Click Sign In</t>
+  </si>
+  <si>
+    <t>Empty input</t>
+  </si>
+  <si>
+    <t>Alert: “Please enter both email and password.”</t>
+  </si>
+  <si>
+    <t>Verify successful email sign-in navigates to /feed</t>
+  </si>
+  <si>
+    <t>Mock signInWithEmailAndPassword. Resolve</t>
+  </si>
+  <si>
+    <t>Submit form</t>
+  </si>
+  <si>
+    <t>Navigate to /feed</t>
+  </si>
+  <si>
+    <t>Feed page loads</t>
+  </si>
+  <si>
+    <t>Verify invalid email/password shows correct alert</t>
+  </si>
+  <si>
+    <t>Mock signInWithEmailAndPassword. Reject auth/invalid-credential</t>
+  </si>
+  <si>
+    <t>Alert “Invalid email or password.”</t>
+  </si>
+  <si>
+    <t>Verify unexpected sign-in error shows generic alert</t>
+  </si>
+  <si>
+    <t>Mock signInWithEmailAndPassword. Reject unknown error</t>
+  </si>
+  <si>
+    <t>Shows generic error alert</t>
+  </si>
+  <si>
+    <t>Alert: "Message"</t>
+  </si>
+  <si>
+    <t>Verify sign-up fails if email missing</t>
+  </si>
+  <si>
+    <t>Switch to Sign Up. Leave email blank. Click Create</t>
+  </si>
+  <si>
+    <t>Empty fields</t>
+  </si>
+  <si>
+    <t>Alert: enter email and password</t>
+  </si>
+  <si>
+    <t>Verify sign-up fails if password &lt; 6 chars</t>
+  </si>
+  <si>
+    <t>Switch to Sign Up. Password length &lt; 6</t>
+  </si>
+  <si>
+    <t>Alert password length error</t>
+  </si>
+  <si>
+    <t>Verify successful sign-up navigates to /feed</t>
+  </si>
+  <si>
+    <t>Mock createUserWithEmailAndPassword. Resolve</t>
+  </si>
+  <si>
+    <t>Navigate("/feed")</t>
+  </si>
+  <si>
+    <t>Verify sign-up fails if email already exists</t>
+  </si>
+  <si>
+    <t>Mock createUserWithEmailAndPassword. Reject auth/email-already-in-use</t>
+  </si>
+  <si>
+    <t>Alert “email already in use”</t>
+  </si>
+  <si>
+    <t>Verify forgot-password fails if no email is entered</t>
+  </si>
+  <si>
+    <t>Leave email empty. Click Forgot Password</t>
+  </si>
+  <si>
+    <t>Alert requesting email</t>
+  </si>
+  <si>
+    <t>Verify forgot-password success triggers success alert</t>
+  </si>
+  <si>
+    <t>Mock sendPasswordResetEmail → resolve</t>
+  </si>
+  <si>
+    <t>Enter email. Click Forgot Password</t>
+  </si>
+  <si>
+    <t>Success alert displays. Navigate to "/feed"</t>
+  </si>
+  <si>
+    <t>Alert “reset link sent” Navigates to "/feed"</t>
+  </si>
+  <si>
+    <t>Verify submit button uses correct label for login</t>
+  </si>
+  <si>
+    <t>Sign In mode</t>
+  </si>
+  <si>
+    <t>Button displays “Sign In”</t>
+  </si>
+  <si>
+    <t>Displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify submit button uses correct label for sign up</t>
+  </si>
+  <si>
+    <t>Sign Up mode</t>
+  </si>
+  <si>
+    <t>Button displays “Create Account”</t>
+  </si>
+  <si>
+    <t>Verify setRandom updates numRandom</t>
+  </si>
+  <si>
+    <t>Call setRandom(4)</t>
+  </si>
+  <si>
+    <t>Input: 4</t>
+  </si>
+  <si>
+    <t>numRandom becomes 4</t>
+  </si>
+  <si>
+    <t>State updated</t>
+  </si>
+  <si>
+    <t>Verify getRandomRecipe calls Spoonacular API with correct params</t>
+  </si>
+  <si>
+    <t>Mock recipeAPI.get. Resolve with a recipe</t>
+  </si>
+  <si>
+    <t>Call getRandomRecipe()</t>
+  </si>
+  <si>
+    <t>API request uses { number: numRandom, includeNutrition: true }</t>
+  </si>
+  <si>
+    <t>API called correctly</t>
+  </si>
+  <si>
+    <t>Verify getRandomRecipe handles API success and sets recipe</t>
+  </si>
+  <si>
+    <t>Mock successful random recipe</t>
+  </si>
+  <si>
+    <t>Call getRandomRecipe</t>
+  </si>
+  <si>
+    <t>recipe updated to returned recipe</t>
+  </si>
+  <si>
+    <t>recipe updated correctly</t>
+  </si>
+  <si>
+    <t>Call will fail if API quota is met</t>
+  </si>
+  <si>
+    <t>Verify getRandomRecipe appends recipe to recipes list</t>
+  </si>
+  <si>
+    <t>Initial recipes length N → after fetch becomes N+1</t>
+  </si>
+  <si>
+    <t>New recipe appended</t>
+  </si>
+  <si>
+    <t>Recipe store correct</t>
   </si>
 </sst>
 </file>
@@ -331,11 +922,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.25"/>
     <col customWidth="1" min="2" max="2" width="69.63"/>
-    <col customWidth="1" min="3" max="3" width="23.38"/>
-    <col customWidth="1" min="4" max="4" width="18.13"/>
-    <col customWidth="1" min="5" max="5" width="21.25"/>
-    <col customWidth="1" min="6" max="6" width="17.13"/>
-    <col customWidth="1" min="8" max="8" width="35.88"/>
+    <col customWidth="1" min="3" max="3" width="59.5"/>
+    <col customWidth="1" min="4" max="4" width="29.63"/>
+    <col customWidth="1" min="5" max="5" width="53.75"/>
+    <col customWidth="1" min="6" max="6" width="43.75"/>
+    <col customWidth="1" min="8" max="8" width="40.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -420,6 +1011,1197 @@
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Test_Case_Document.xlsx
+++ b/Test_Case_Document.xlsx
@@ -648,7 +648,7 @@
     <t>Verify getRandomRecipe appends recipe to recipes list</t>
   </si>
   <si>
-    <t>Initial recipes length N → after fetch becomes N+1</t>
+    <t>Initial recipes length N after fetch becomes N+1</t>
   </si>
   <si>
     <t>New recipe appended</t>
